--- a/output/CodeSystem-ServiceRequestCategory.xlsx
+++ b/output/CodeSystem-ServiceRequestCategory.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/CodeSystem/ServiceRequestCategory</t>
+    <t>http://br-ipes.com/fhir/CodeSystem/ServiceRequestCategory</t>
   </si>
   <si>
     <t>Version</t>
@@ -96,7 +96,7 @@
     <t>Value Set (all codes)</t>
   </si>
   <si>
-    <t>http://ehrrunner.com/fhir/ValueSet/ServiceRequestCategory</t>
+    <t>http://br-ipes.com/fhir/ValueSet/ServiceRequestCategory</t>
   </si>
   <si>
     <t>Hierarchy</t>
